--- a/data/trans_camb/P15_5-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15_5-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-18,51</t>
+          <t>-19,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-31,28</t>
+          <t>-28,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-54,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>-21,88</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-14,97</t>
+          <t>-39,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-33,06</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-48,81</t>
+          <t>-20,83</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-16,51</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-32,27</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-51,09</t>
+          <t>-34,28</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 8,91</t>
+          <t>-0,6; 15,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,58; -12,48</t>
+          <t>-31,01; -9,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-38,56; -23,73</t>
+          <t>-37,07; -17,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-60,84; -46,56</t>
+          <t>-3,68; 9,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 10,19</t>
+          <t>-28,78; -14,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,82; -9,38</t>
+          <t>-45,58; -31,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,47; -25,29</t>
+          <t>-0,39; 9,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-55,79; -40,69</t>
+          <t>-27,1; -14,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 8,3</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-21,19; -12,48</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-36,82; -27,14</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-55,63; -45,94</t>
+          <t>-39,63; -27,52</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-20,36%</t>
+          <t>-22,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-34,41%</t>
+          <t>-32,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-59,41%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>-23,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,99%</t>
+          <t>-42,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-37,53%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-55,41%</t>
+          <t>-23,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-18,49%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-36,14%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-57,21%</t>
+          <t>-38,04%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 10,11</t>
+          <t>-0,69; 19,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,97; -13,93</t>
+          <t>-34,4; -11,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,29; -26,72</t>
+          <t>-40,9; -21,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,93; -52,13</t>
+          <t>-3,85; 10,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 11,97</t>
+          <t>-30,57; -16,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,32; -11,14</t>
+          <t>-48,35; -36,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,06; -29,31</t>
+          <t>-0,48; 10,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,76; -47,63</t>
+          <t>-29,53; -17,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,52</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-23,46; -14,25</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-40,87; -30,62</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-61,96; -51,96</t>
+          <t>-43,07; -32,21</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>11,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-22,0</t>
+          <t>-12,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-40,58</t>
+          <t>-32,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-53,1</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>-20,12</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,46</t>
+          <t>-38,03</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-40,09</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-53,19</t>
+          <t>-16,29</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-21,73</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-40,34</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-53,13</t>
+          <t>-35,58</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 10,09</t>
+          <t>4,39; 17,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,14; -17,0</t>
+          <t>-19,37; -4,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-45,94; -35,11</t>
+          <t>-39,56; -25,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-58,13; -47,65</t>
+          <t>1,76; 13,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 11,29</t>
+          <t>-26,23; -13,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,06; -16,6</t>
+          <t>-44,2; -32,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-45,05; -35,16</t>
+          <t>4,32; 13,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-58,06; -48,21</t>
+          <t>-21,32; -11,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 9,58</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-24,71; -18,42</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-43,75; -36,54</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-56,84; -49,26</t>
+          <t>-40,09; -30,73</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-26,71%</t>
+          <t>-16,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-49,27%</t>
+          <t>-44,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-64,47%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>-24,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-26,1%</t>
+          <t>-47,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-48,75%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-64,69%</t>
+          <t>-20,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-26,41%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-49,02%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-64,57%</t>
+          <t>-45,82%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 12,54</t>
+          <t>5,6; 25,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,27; -21,09</t>
+          <t>-24,95; -6,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,14; -43,2</t>
+          <t>-51,62; -36,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-69,69; -58,72</t>
+          <t>2,18; 17,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 14,31</t>
+          <t>-31,26; -17,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,16; -20,81</t>
+          <t>-52,76; -40,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,11; -43,48</t>
+          <t>5,35; 18,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,95; -59,24</t>
+          <t>-26,66; -15,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,93; 11,83</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-29,76; -22,66</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-53,21; -45,09</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-68,51; -60,4</t>
+          <t>-50,34; -40,93</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-26,24</t>
+          <t>-23,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-41,76</t>
+          <t>-38,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-52,34</t>
+          <t>11,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,35</t>
+          <t>-21,69</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-25,95</t>
+          <t>-35,54</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-39,84</t>
+          <t>11,04</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-47,09</t>
+          <t>-22,68</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,38</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-26,14</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-40,83</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-49,65</t>
+          <t>-37,12</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 12,83</t>
+          <t>2,07; 18,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-33,21; -19,41</t>
+          <t>-32,68; -15,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-48,46; -34,87</t>
+          <t>-46,58; -30,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-59,7; -43,98</t>
+          <t>3,9; 18,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,92; 16,39</t>
+          <t>-29,27; -13,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,2; -19,83</t>
+          <t>-42,04; -27,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-45,37; -33,59</t>
+          <t>5,31; 16,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-53,83; -39,61</t>
+          <t>-28,82; -17,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 13,17</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-30,88; -21,79</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-45,05; -36,69</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-55,13; -44,4</t>
+          <t>-42,35; -31,49</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-35,99%</t>
+          <t>-34,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-57,27%</t>
+          <t>-55,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-71,79%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>-32,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-36,72%</t>
+          <t>-53,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-56,38%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-66,64%</t>
+          <t>-33,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-36,4%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-56,85%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>-69,15%</t>
+          <t>-54,59%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 18,64</t>
+          <t>2,78; 27,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,1; -27,77</t>
+          <t>-43,73; -22,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,09; -50,27</t>
+          <t>-63,21; -46,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-79,33; -61,72</t>
+          <t>5,21; 30,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,57; 24,42</t>
+          <t>-42,06; -22,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,17; -29,77</t>
+          <t>-60,0; -45,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-62,18; -49,77</t>
+          <t>7,47; 26,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,25; -57,33</t>
+          <t>-40,25; -26,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,95; 18,98</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-41,91; -31,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-61,27; -52,04</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>-75,03; -62,55</t>
+          <t>-59,75; -49,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-22,26</t>
+          <t>-25,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-38,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-51,47</t>
+          <t>9,79</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>-17,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-21,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-38,51</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-49,02</t>
+          <t>-21,65</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-21,75</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-38,68</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-50,24</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,63; 8,64</t>
+          <t>1,19; 9,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-26,06; -18,71</t>
+          <t>-32,35; -19,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-42,84; -35,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-55,36; -47,18</t>
+          <t>6,32; 13,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,86; 10,41</t>
+          <t>-23,68; -11,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,43; -17,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-41,54; -35,0</t>
+          <t>4,86; 10,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-52,85; -45,09</t>
+          <t>-25,8; -17,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,56</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-23,98; -19,29</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-41,09; -36,12</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-52,86; -47,29</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,44%</t>
+          <t>-29,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-47,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-63,46%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>-21,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-26,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-47,9%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-60,97%</t>
+          <t>-25,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-26,94%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-47,91%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-62,21%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,283 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,26; 10,84</t>
+          <t>1,46; 11,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,7; -23,42</t>
+          <t>-37,56; -22,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,17; -43,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-67,55; -59,03</t>
+          <t>7,58; 16,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,91; 13,17</t>
+          <t>-28,48; -14,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,07; -22,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-51,33; -43,99</t>
+          <t>5,8; 12,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-65,03; -56,61</t>
+          <t>-30,59; -20,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,74; 10,75</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-29,41; -24,08</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-50,7; -45,11</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-64,9; -59,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6,22</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-22,68</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-39,2</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7,91</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-21,38</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-39,02</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7,08</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-22,02</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-39,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3,23; 9,28</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-26,65; -19,31</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-43,06; -35,21</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5,3; 10,42</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-24,48; -18,51</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-42,11; -35,85</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 9,1</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-24,51; -19,43</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-41,54; -36,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-27,97%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-48,33%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>9,83%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-26,58%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-48,51%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>8,77%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-27,26%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-48,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3,92; 11,73</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-32,23; -24,18</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-52,39; -43,76</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>6,51; 13,31</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-30,15; -23,34</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-51,62; -45,05</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>6,26; 11,42</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-30,08; -24,37</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-51,09; -45,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
